--- a/Team-Data/2008-09/12-27-2008-09.xlsx
+++ b/Team-Data/2008-09/12-27-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -841,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -859,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -915,97 +915,97 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.867</v>
+        <v>0.871</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1175,7 +1175,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.448</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
         <v>7.8</v>
@@ -1342,43 +1342,43 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.1</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1387,28 +1387,28 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
         <v>9</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1417,22 +1417,22 @@
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.893</v>
+        <v>0.862</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.481</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1557,61 +1557,61 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB6" t="n">
         <v>7</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>5</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,19 +1721,19 @@
         <v>2.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1903,7 +1903,7 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1930,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
         <v>6</v>
@@ -1942,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1966,19 +1966,19 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
       </c>
       <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
         <v>5</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>6</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2100,13 +2100,13 @@
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>22</v>
@@ -2121,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>14</v>
@@ -2139,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2154,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
         <v>22</v>
@@ -2294,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>27</v>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2449,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2670,10 +2670,10 @@
         <v>28</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2700,10 +2700,10 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2813,7 +2813,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.821</v>
+        <v>0.828</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2944,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.1</v>
@@ -2977,25 +2977,25 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3019,28 +3019,28 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="n">
         <v>15</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3052,16 +3052,16 @@
         <v>14</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3177,7 +3177,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3207,10 +3207,10 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>11</v>
@@ -3359,13 +3359,13 @@
         <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -3395,13 +3395,13 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>25</v>
@@ -3413,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
@@ -3428,13 +3428,13 @@
         <v>13</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,82 +3481,82 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -3571,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3586,19 +3586,19 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3610,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3756,13 +3756,13 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
         <v>13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3771,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3789,10 +3789,10 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>23</v>
@@ -3905,7 +3905,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3926,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3935,7 +3935,7 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3965,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -4117,7 +4117,7 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
@@ -4138,7 +4138,7 @@
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4269,7 +4269,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4311,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4320,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
@@ -4451,7 +4451,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4517,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>26</v>
@@ -4633,10 +4633,10 @@
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4681,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4815,10 +4815,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>19</v>
@@ -4848,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4860,10 +4860,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>20</v>
@@ -4881,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4997,13 +4997,13 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -5048,7 +5048,7 @@
         <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -5063,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5072,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.621</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5161,64 +5161,64 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>2</v>
@@ -5227,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
         <v>15</v>
@@ -5236,25 +5236,25 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC26" t="n">
         <v>7</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5397,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5418,7 +5418,7 @@
         <v>23</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>21</v>
@@ -5430,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5543,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5561,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5725,10 +5725,10 @@
         <v>-3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>19</v>
@@ -5755,13 +5755,13 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>9</v>
@@ -5940,7 +5940,7 @@
         <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
@@ -5964,10 +5964,10 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5979,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>10</v>
@@ -6125,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>

--- a/Team-Data/2008-09/12-27-2008-09.xlsx
+++ b/Team-Data/2008-09/12-27-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,67 +733,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.655</v>
+        <v>0.643</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>35.7</v>
+        <v>35.2</v>
       </c>
       <c r="J2" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.451</v>
       </c>
       <c r="L2" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P2" t="n">
         <v>23.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R2" t="n">
         <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="W2" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y2" t="n">
         <v>4.3</v>
@@ -738,34 +805,34 @@
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -789,25 +856,25 @@
         <v>17</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
         <v>9</v>
       </c>
       <c r="AW2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -848,97 +915,97 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.867</v>
+        <v>0.871</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -956,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.355</v>
+        <v>0.367</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>75.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
         <v>5.3</v>
@@ -1063,10 +1130,10 @@
         <v>0.362</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q4" t="n">
         <v>0.739</v>
@@ -1078,49 +1145,49 @@
         <v>28.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U4" t="n">
         <v>19.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
         <v>4.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.40000000000001</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
@@ -1141,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
@@ -1153,31 +1220,31 @@
         <v>20</v>
       </c>
       <c r="AS4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT4" t="n">
         <v>29</v>
       </c>
-      <c r="AT4" t="n">
-        <v>28</v>
-      </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -1215,61 +1282,61 @@
         <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.414</v>
+        <v>0.448</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1278,25 +1345,25 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
@@ -1305,67 +1372,67 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.893</v>
+        <v>0.862</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.481</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1490,61 +1557,61 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>19</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>2.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1675,19 +1742,19 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1696,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1705,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
         <v>10</v>
       </c>
-      <c r="AV7" t="n">
-        <v>11</v>
-      </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
         <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1905,13 +1972,13 @@
         <v>22</v>
       </c>
       <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
         <v>5</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>6</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.607</v>
+        <v>0.593</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
         <v>5.3</v>
       </c>
       <c r="M9" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
         <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R9" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>40.3</v>
+        <v>39.8</v>
       </c>
       <c r="U9" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V9" t="n">
         <v>12.9</v>
@@ -2006,22 +2073,22 @@
         <v>4.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
@@ -2030,55 +2097,55 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2093,7 +2160,7 @@
         <v>22</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2227,10 +2294,10 @@
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2248,7 +2315,7 @@
         <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.645</v>
+        <v>0.633</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J11" t="n">
-        <v>79.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O11" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="P11" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W11" t="n">
         <v>6.5</v>
@@ -2373,16 +2440,16 @@
         <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,43 +2461,43 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>21</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>4</v>
@@ -2457,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2576,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2585,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2597,7 +2664,7 @@
         <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
@@ -2606,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2618,28 +2685,28 @@
         <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>26</v>
@@ -2761,16 +2828,16 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2791,16 +2858,16 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.821</v>
+        <v>0.828</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2877,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.1</v>
@@ -2910,28 +2977,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2952,28 +3019,28 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="n">
         <v>15</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2982,19 +3049,19 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>2</v>
       </c>
       <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
         <v>8</v>
       </c>
-      <c r="AY14" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.345</v>
       </c>
       <c r="H15" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="J15" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.458</v>
@@ -3065,73 +3132,73 @@
         <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="T15" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="U15" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
         <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
         <v>23</v>
       </c>
-      <c r="AG15" t="n">
-        <v>24</v>
-      </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,22 +3207,22 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>21</v>
       </c>
-      <c r="AO15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>22</v>
-      </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3164,25 +3231,25 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -3295,22 +3362,22 @@
         <v>22</v>
       </c>
       <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
         <v>14</v>
       </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>17</v>
@@ -3328,16 +3395,16 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
         <v>22</v>
@@ -3346,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
@@ -3358,13 +3425,13 @@
         <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -3411,73 +3478,73 @@
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
         <v>82.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.433</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.327</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R17" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -3486,25 +3553,25 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3519,19 +3586,19 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3543,10 +3610,10 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.172</v>
+        <v>0.179</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3602,40 +3669,40 @@
         <v>0.429</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P18" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.755</v>
+        <v>0.763</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
         <v>4.3</v>
@@ -3644,31 +3711,31 @@
         <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
@@ -3680,37 +3747,37 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>12</v>
       </c>
       <c r="AP18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR18" t="n">
         <v>12</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>9</v>
-      </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU18" t="n">
         <v>16</v>
       </c>
-      <c r="AU18" t="n">
-        <v>17</v>
-      </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3719,16 +3786,16 @@
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB18" t="n">
         <v>23</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.483</v>
       </c>
       <c r="H19" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J19" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
         <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
         <v>18.7</v>
@@ -3817,7 +3884,7 @@
         <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3829,16 +3896,16 @@
         <v>23.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.1</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,43 +3917,43 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
         <v>22</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
@@ -3898,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3907,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB19" t="n">
         <v>10</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,16 +4108,16 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
@@ -4071,7 +4138,7 @@
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4089,10 +4156,10 @@
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -4208,13 +4275,13 @@
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
         <v>27</v>
@@ -4244,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4253,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.097</v>
+        <v>0.1</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
@@ -4324,10 +4391,10 @@
         <v>35.6</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L22" t="n">
         <v>3.8</v>
@@ -4336,55 +4403,55 @@
         <v>10.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O22" t="n">
         <v>17.8</v>
       </c>
       <c r="P22" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="R22" t="n">
         <v>11.8</v>
       </c>
       <c r="S22" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T22" t="n">
         <v>42.1</v>
       </c>
       <c r="U22" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W22" t="n">
         <v>6.9</v>
       </c>
       <c r="X22" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
         <v>5.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC22" t="n">
         <v>-9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4399,13 +4466,13 @@
         <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,46 +4481,46 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT22" t="n">
         <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.793</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M23" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="O23" t="n">
         <v>19.1</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.712</v>
+        <v>0.709</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="V23" t="n">
         <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y23" t="n">
         <v>3.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,19 +4663,19 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>3</v>
@@ -4623,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -4748,28 +4815,28 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4790,13 +4857,13 @@
         <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>20</v>
@@ -4814,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -4933,16 +5000,16 @@
         <v>22</v>
       </c>
       <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
         <v>14</v>
       </c>
-      <c r="AF25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4957,7 +5024,7 @@
         <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
         <v>1</v>
@@ -4990,13 +5057,13 @@
         <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -5037,58 +5104,58 @@
         <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.393</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5097,97 +5164,97 @@
         <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
         <v>7</v>
       </c>
-      <c r="AF26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK26" t="n">
         <v>9</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>14</v>
       </c>
-      <c r="AV26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>15</v>
-      </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,16 +5373,16 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK27" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>21</v>
@@ -5324,19 +5391,19 @@
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
@@ -5351,19 +5418,19 @@
         <v>23</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H28" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.463</v>
@@ -5425,58 +5492,58 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
         <v>20</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
         <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="W28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,16 +5555,16 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5515,10 +5582,10 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5527,7 +5594,7 @@
         <v>21</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5539,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>0.414</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,7 +5665,7 @@
         <v>35.2</v>
       </c>
       <c r="J29" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K29" t="n">
         <v>0.448</v>
@@ -5610,28 +5677,28 @@
         <v>16.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O29" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.832</v>
+        <v>0.829</v>
       </c>
       <c r="R29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
         <v>13.4</v>
@@ -5640,40 +5707,40 @@
         <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>18.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.6</v>
+        <v>-3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
@@ -5682,31 +5749,31 @@
         <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5718,16 +5785,16 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>2</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
         <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H30" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J30" t="n">
-        <v>79.5</v>
+        <v>78.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.473</v>
@@ -5792,19 +5859,19 @@
         <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O30" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="P30" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S30" t="n">
         <v>29.5</v>
@@ -5813,52 +5880,52 @@
         <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="V30" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y30" t="n">
         <v>5.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
       </c>
       <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
         <v>15</v>
       </c>
-      <c r="AH30" t="n">
-        <v>4</v>
-      </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5870,22 +5937,22 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
@@ -5906,16 +5973,16 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
@@ -5944,103 +6011,103 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.179</v>
+        <v>0.148</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L31" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M31" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P31" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="S31" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T31" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="U31" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.3</v>
+        <v>-6.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6052,40 +6119,40 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS31" t="n">
         <v>27</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>28</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
@@ -6094,7 +6161,7 @@
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-27-2008-09</t>
+          <t>2008-12-27</t>
         </is>
       </c>
     </row>
